--- a/sub/py.xlsx
+++ b/sub/py.xlsx
@@ -260,13 +260,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="26" min="1" style="4" width="7.63"/>
   </cols>
@@ -302,7 +302,7 @@
           <t>03/03/20</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>13/03/20</t>
         </is>
@@ -337,7 +337,7 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -372,7 +372,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -402,7 +402,7 @@
           <t>Absent</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -427,7 +427,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -447,7 +447,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -467,7 +467,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>Ah</t>
         </is>
@@ -482,9 +482,19 @@
           <t>Ramesh</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kaif</t>
         </is>
       </c>
     </row>
